--- a/Documents/משימות.xlsx
+++ b/Documents/משימות.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>מה?</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>כולם - דחוף</t>
+  </si>
+  <si>
+    <t>נטע לי</t>
   </si>
 </sst>
 </file>
@@ -83,7 +86,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -91,7 +94,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -149,67 +152,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -226,12 +173,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -273,7 +223,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,7 +258,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -523,13 +473,13 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.25" customWidth="1"/>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="83.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,7 +490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -551,7 +501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -562,7 +512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -573,7 +523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -584,7 +534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -595,7 +545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -606,7 +556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -617,7 +567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -628,18 +578,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -650,225 +600,225 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" s="2"/>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" s="2"/>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" s="2"/>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="2"/>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="2"/>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="2"/>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="2"/>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="2"/>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="2"/>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="2"/>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="2"/>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="2"/>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="2"/>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" s="2"/>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="2"/>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" s="2"/>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="2"/>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C77">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"V"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -883,7 +833,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -895,7 +845,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
